--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{744DE768-2D16-4B45-9DC1-BCB7EB0DFF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85944A68-2C91-487F-8961-FC38673E55D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -655,6 +655,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -667,9 +694,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,39 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1142,7 +1142,7 @@
   <dimension ref="B1:BO36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1174,33 +1174,33 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1208,66 +1208,66 @@
         <v>32</v>
       </c>
       <c r="J2" s="20"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="42"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1294,12 +1294,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1482,27 +1482,27 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="41">
-        <v>1</v>
-      </c>
-      <c r="D5" s="41">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41">
-        <v>1</v>
-      </c>
-      <c r="F5" s="41">
-        <v>1</v>
-      </c>
-      <c r="G5" s="42">
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="7">
@@ -1522,22 +1522,22 @@
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="25">
         <v>2</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="25">
         <v>4</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="25">
         <v>2</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="25">
         <v>4</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="26">
         <v>0.75</v>
       </c>
     </row>
@@ -1558,29 +1558,29 @@
         <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
         <v>2</v>
       </c>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
-      <c r="G9" s="42">
-        <v>0</v>
-      </c>
-      <c r="N9" s="45" t="s">
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1601,31 +1601,31 @@
         <v>1</v>
       </c>
       <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="25">
+        <v>3</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="41">
-        <v>3</v>
-      </c>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="41">
-        <v>3</v>
-      </c>
-      <c r="F11" s="41">
-        <v>1</v>
-      </c>
-      <c r="G11" s="42">
-        <v>0</v>
-      </c>
-    </row>
     <row r="12" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="7">
@@ -1645,22 +1645,22 @@
       </c>
     </row>
     <row r="13" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="25">
         <v>3</v>
       </c>
-      <c r="D13" s="41">
-        <v>1</v>
-      </c>
-      <c r="E13" s="41">
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
         <v>3</v>
       </c>
-      <c r="F13" s="41">
-        <v>1</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1685,22 +1685,22 @@
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="28">
         <v>3</v>
       </c>
-      <c r="D15" s="41">
-        <v>1</v>
-      </c>
-      <c r="E15" s="41">
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
         <v>3</v>
       </c>
-      <c r="F15" s="41">
-        <v>1</v>
-      </c>
-      <c r="G15" s="42">
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1725,22 +1725,22 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="25">
         <v>4</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="25">
         <v>2</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="25">
         <v>4</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="25">
         <v>2</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1765,22 +1765,22 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="25">
         <v>4</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="25">
         <v>2</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="25">
         <v>4</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="25">
         <v>2</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1805,27 +1805,27 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="25">
         <v>5</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="25">
         <v>2</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="25">
         <v>5</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="25">
         <v>2</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="7">
@@ -1845,22 +1845,22 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="25">
         <v>6</v>
       </c>
-      <c r="D23" s="41">
-        <v>1</v>
-      </c>
-      <c r="E23" s="41">
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="25">
         <v>6</v>
       </c>
-      <c r="F23" s="41">
-        <v>1</v>
-      </c>
-      <c r="G23" s="42">
+      <c r="F23" s="25">
+        <v>1</v>
+      </c>
+      <c r="G23" s="26">
         <v>0</v>
       </c>
     </row>

--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85944A68-2C91-487F-8961-FC38673E55D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7EFD1D-ABF0-482A-A9DA-9A3C7779E84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="B1:BO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7EFD1D-ABF0-482A-A9DA-9A3C7779E84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F22CC4-3EAE-4993-917B-6579E8EEC1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>PERIODS</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>For diamonds and agile methods, see png or spmp</t>
+  </si>
+  <si>
+    <t>Code review deliverable</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1142,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO36"/>
+  <dimension ref="B1:BO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1604,273 +1607,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C12" s="25">
         <v>3</v>
       </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
         <v>3</v>
       </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <v>3</v>
       </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+    <row r="14" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C14" s="25">
         <v>3</v>
       </c>
-      <c r="D13" s="25">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
         <v>3</v>
       </c>
-      <c r="F13" s="25">
-        <v>1</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="2:67" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="s">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C16" s="28">
         <v>3</v>
       </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
         <v>3</v>
       </c>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
-      <c r="G15" s="26">
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
         <v>4</v>
       </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C18" s="25">
         <v>4</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D18" s="25">
         <v>2</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E18" s="25">
         <v>4</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F18" s="25">
         <v>2</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>4</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>3</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C20" s="25">
         <v>4</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D20" s="25">
         <v>2</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E20" s="25">
         <v>4</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F20" s="25">
         <v>2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
         <v>5</v>
       </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C22" s="25">
         <v>5</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D22" s="25">
         <v>2</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E22" s="25">
         <v>5</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F22" s="25">
         <v>2</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C24" s="25">
         <v>6</v>
       </c>
-      <c r="D23" s="25">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25">
         <v>6</v>
       </c>
-      <c r="F23" s="25">
-        <v>1</v>
-      </c>
-      <c r="G23" s="26">
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
@@ -1898,6 +1911,11 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
@@ -1922,6 +1940,9 @@
     </row>
     <row r="36" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1938,7 +1959,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO27">
+  <conditionalFormatting sqref="H5:BO28">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1964,7 +1985,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:BO28 B37">
+  <conditionalFormatting sqref="C29:BO29 B38">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F22CC4-3EAE-4993-917B-6579E8EEC1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3A855-595A-46B7-B3A4-EA8D2D4E607C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1144,8 +1144,8 @@
   </sheetPr>
   <dimension ref="B1:BO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3A855-595A-46B7-B3A4-EA8D2D4E607C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD378C12-0D2C-4C04-954A-67DE0E4E0191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -352,6 +352,20 @@
       <b/>
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -594,7 +608,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,6 +746,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1144,8 +1167,8 @@
   </sheetPr>
   <dimension ref="B1:BO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1508,7 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="25">
@@ -1505,7 +1528,7 @@
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="7">
@@ -1525,7 +1548,7 @@
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="25">
@@ -1545,7 +1568,7 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="7">
@@ -1565,7 +1588,7 @@
       </c>
     </row>
     <row r="9" spans="2:67" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="25">
@@ -1588,7 +1611,7 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="7">
@@ -1608,7 +1631,7 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7">
@@ -1623,10 +1646,12 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="25">
@@ -1646,7 +1671,7 @@
       </c>
     </row>
     <row r="13" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="7">
@@ -1662,11 +1687,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="25">
@@ -1682,11 +1707,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="7">
@@ -1706,7 +1731,7 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="28">
@@ -1726,7 +1751,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="7">
@@ -1746,7 +1771,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="25">
@@ -1766,7 +1791,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7">
@@ -1786,7 +1811,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="25">

--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Downloads\School\Git\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD378C12-0D2C-4C04-954A-67DE0E4E0191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58DF68-DBB9-4871-95E0-8261FE5BE84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -699,6 +699,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,15 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1167,8 +1167,8 @@
   </sheetPr>
   <dimension ref="B1:BO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1220,13 +1220,13 @@
       </c>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1234,66 +1234,66 @@
         <v>32</v>
       </c>
       <c r="J2" s="20"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="42"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="45"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="40" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1320,12 +1320,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="25">
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="7">
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="25">
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="7">
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="9" spans="2:67" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="25">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="7">
@@ -1631,7 +1631,7 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7">
@@ -1651,7 +1651,7 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="25">
@@ -1671,7 +1671,7 @@
       </c>
     </row>
     <row r="13" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="7">
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="25">
@@ -1711,7 +1711,7 @@
       </c>
     </row>
     <row r="15" spans="2:67" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="7">
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="28">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="7">
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="25">
@@ -1787,11 +1787,11 @@
         <v>2</v>
       </c>
       <c r="G18" s="26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="7">
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="25">
@@ -1827,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Downloads\School\Git\repo docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58DF68-DBB9-4871-95E0-8261FE5BE84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5501A6-1A4B-4BDE-97E7-BA29E2722543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
   </sheetPr>
   <dimension ref="B1:BO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/repo docs/groupgantt.xlsx
+++ b/repo docs/groupgantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanh\Desktop\COSC 412\groupmaster412\COSC-412-Group-Project\repo docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5501A6-1A4B-4BDE-97E7-BA29E2722543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BFF50-DC1B-4479-A7F5-89DF7E732B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,8 +1167,8 @@
   </sheetPr>
   <dimension ref="B1:BO37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1544,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
